--- a/CASUAL/LA CHO/BITUIN, LUCKY NIKKO.xlsx
+++ b/CASUAL/LA CHO/BITUIN, LUCKY NIKKO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>UT(0-0-7)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -886,7 +895,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,7 +938,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -993,7 +1002,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1062,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1128,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1191,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1289,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1348,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1413,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1456,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1531,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,7 +1717,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1783,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1841,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1907,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1963,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2038,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2081,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2147,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2203,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2299,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2637,12 +2646,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="G9" sqref="G9"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="3690" topLeftCell="A21" activePane="bottomLeft"/>
+      <selection activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2814,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.902000000000001</v>
+        <v>20.652000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2815,7 +2824,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>24.917000000000002</v>
+        <v>27.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2846,7 +2855,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
-        <v>44593</v>
+        <v>44620</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13">
@@ -2866,7 +2875,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
-        <v>44621</v>
+        <v>44651</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -2886,7 +2895,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -2906,7 +2915,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
-        <v>44682</v>
+        <v>44712</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -2926,7 +2935,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
-        <v>44713</v>
+        <v>44742</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
@@ -2946,7 +2955,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="13">
@@ -2966,7 +2975,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
-        <v>44774</v>
+        <v>44804</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
@@ -2986,7 +2995,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3006,7 +3015,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>45</v>
@@ -3030,7 +3039,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -3050,7 +3059,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -3114,7 +3123,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3134,7 +3143,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3154,7 +3163,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -3178,7 +3187,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>50</v>
@@ -3202,7 +3211,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3222,7 +3231,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>51</v>
@@ -3248,7 +3257,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3268,7 +3277,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -3288,16 +3297,18 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
@@ -3306,47 +3317,67 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="39"/>
+        <v>45230</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="39">
+        <v>1</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="49">
+        <v>45210</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="13"/>
+        <v>45260</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H34" s="39"/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="39">
+        <v>1</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="49">
+        <v>45264</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B35" s="20"/>
+        <v>45291</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>1</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
@@ -3356,11 +3387,13 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="49">
+        <v>45287</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
-        <v>45292</v>
+      <c r="A36" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3378,7 +3411,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3396,7 +3429,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3414,7 +3447,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3432,7 +3465,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3450,7 +3483,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3468,7 +3501,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3486,7 +3519,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45505</v>
+        <v>45504</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3504,7 +3537,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3522,7 +3555,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45566</v>
+        <v>45565</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3540,7 +3573,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3558,7 +3591,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3576,7 +3609,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3594,7 +3627,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45689</v>
+        <v>45688</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3612,7 +3645,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45717</v>
+        <v>45716</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3630,7 +3663,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3648,7 +3681,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3666,7 +3699,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3684,7 +3717,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45839</v>
+        <v>45838</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3702,7 +3735,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45870</v>
+        <v>45869</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3719,7 +3752,9 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+      <c r="A56" s="40">
+        <v>45900</v>
+      </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
@@ -4919,20 +4954,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
